--- a/reports/results_032023.xlsx
+++ b/reports/results_032023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,28 +655,980 @@
       <c r="C8" t="n">
         <v>72.65197981157471</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.3687</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.2315</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>14.3751</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7247</t>
-        </is>
+      <c r="D8" t="n">
+        <v>27.3687</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.2315</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.3751</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7247</v>
       </c>
       <c r="H8" t="n">
         <v>3.306752920150757</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.06701429772913</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73.01921766190075</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.6842</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.1657</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.2947</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.7411</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.291962146759033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C10" t="n">
+        <v>72.91166612267683</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.6396</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.3516</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.2541</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9376111030578613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C11" t="n">
+        <v>72.91166612267683</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.6396</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.3516</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16.2541</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.08263492584228516</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72.91166612267683</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.6396</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.3516</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.2541</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.08218908309936523</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C13" t="n">
+        <v>73.10602408218149</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27.9277</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.2847</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.0985</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7147</v>
+      </c>
+      <c r="H13" t="n">
+        <v>102.9862704277039</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73.28060681259822</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28.113</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.3022</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.3775</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7109</v>
+      </c>
+      <c r="H14" t="n">
+        <v>111.018919467926</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Base XGB Analysis</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C15" t="n">
+        <v>73.15860748291016</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28.2189</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.3121</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15.8098</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.5539238452911377</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>XGB Tuned</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C16" t="n">
+        <v>72.56488800048828</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27.3007</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.225</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.3809</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7274</v>
+      </c>
+      <c r="H16" t="n">
+        <v>185.9945530891418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C17" t="n">
+        <v>73.25298420801182</v>
+      </c>
+      <c r="D17" t="n">
+        <v>27.7343</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5.2663</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.8774</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7187</v>
+      </c>
+      <c r="H17" t="n">
+        <v>119.1818242073059</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C18" t="n">
+        <v>72.91166612267683</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.6396</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.3516</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.2541</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1076860427856445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>73.75066219614409</v>
+      </c>
+      <c r="C19" t="n">
+        <v>73.10161708837354</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27.7927</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.2719</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.0212</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7175</v>
+      </c>
+      <c r="H19" t="n">
+        <v>133.442843914032</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C20" t="n">
+        <v>72.79721223682351</v>
+      </c>
+      <c r="D20" t="n">
+        <v>31.9391</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5.6515</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17.257</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.119246482849121</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RandomForest Tree results</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C21" t="n">
+        <v>72.38892828902701</v>
+      </c>
+      <c r="D21" t="n">
+        <v>31.2475</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.5899</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.9398</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="H21" t="n">
+        <v>144.0401680469513</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Base XGB Analysis</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C22" t="n">
+        <v>72.52666473388672</v>
+      </c>
+      <c r="D22" t="n">
+        <v>32.8925</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.7352</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18.3978</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5707</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4761719703674316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>XGB Tuned</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C23" t="n">
+        <v>72.16600799560547</v>
+      </c>
+      <c r="D23" t="n">
+        <v>31.4716</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17.9761</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="H23" t="n">
+        <v>198.253066778183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C24" t="n">
+        <v>72.42666723945143</v>
+      </c>
+      <c r="D24" t="n">
+        <v>31.0649</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.5736</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17.4031</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="H24" t="n">
+        <v>42.59676837921143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C25" t="n">
+        <v>72.49953411683434</v>
+      </c>
+      <c r="D25" t="n">
+        <v>31.0066</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.5684</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.596</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6186</v>
+      </c>
+      <c r="H25" t="n">
+        <v>114.7759714126587</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Base Decission Tree results</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>72.46995902218455</v>
+      </c>
+      <c r="C26" t="n">
+        <v>72.80582167585136</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.6539</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.531</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23.0665</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2782</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.07896757125854492</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C27" t="n">
+        <v>73.94527566666666</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.7911</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.176</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14.3657</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.7369</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.198135614395142</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RandomForest Tree results</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C28" t="n">
+        <v>73.86552274763385</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.5666</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.2504</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.1866</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7214</v>
+      </c>
+      <c r="H28" t="n">
+        <v>114.2678244113922</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>72.78259328043222</v>
+      </c>
+      <c r="C29" t="n">
+        <v>72.94669306094885</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27.1364</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.2093</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14.3297</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7267</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.212322950363159</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>72.78259328043222</v>
+      </c>
+      <c r="C30" t="n">
+        <v>72.82912409252069</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27.288</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.2238</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14.3817</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7236</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.21670126914978</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C31" t="n">
+        <v>73.949416</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.8206</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.1789</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14.3516</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.7363</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.253308057785034</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Base XGB Analysis</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C32" t="n">
+        <v>73.87708282470703</v>
+      </c>
+      <c r="D32" t="n">
+        <v>28.5752</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.3456</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16.3444</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7007</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4115059375762939</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>XGB Tuned</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C33" t="n">
+        <v>73.35836029052734</v>
+      </c>
+      <c r="D33" t="n">
+        <v>27.2722</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.2223</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14.8797</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.7274</v>
+      </c>
+      <c r="H33" t="n">
+        <v>240.3142206668854</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C34" t="n">
+        <v>73.34510246225636</v>
+      </c>
+      <c r="D34" t="n">
+        <v>28.5325</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.3416</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16.5283</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7016</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.100071907043457</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>74.36183333333338</v>
+      </c>
+      <c r="C35" t="n">
+        <v>73.93869149999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>26.8116</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5.178</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.4624</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7365</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.217819690704346</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Base Decission Tree results</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>62.17705053852535</v>
+      </c>
+      <c r="C36" t="n">
+        <v>63.56603148301574</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24.636</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.9635</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.4602</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03707361221313477</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tuned DecisionTree</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>62.17705053852535</v>
+      </c>
+      <c r="C37" t="n">
+        <v>62.7586164043082</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21.5848</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.6459</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14.2777</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.4659</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.675739526748657</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>62.17705053852535</v>
+      </c>
+      <c r="C38" t="n">
+        <v>61.96826926263464</v>
+      </c>
+      <c r="D38" t="n">
+        <v>18.2827</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.2758</v>
+      </c>
+      <c r="F38" t="n">
+        <v>11.6292</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6168</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.645632266998291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RandomForest Tree results</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>62.17705053852535</v>
+      </c>
+      <c r="C39" t="n">
+        <v>62.15366339937322</v>
+      </c>
+      <c r="D39" t="n">
+        <v>18.3669</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.2857</v>
+      </c>
+      <c r="F39" t="n">
+        <v>11.8536</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6133</v>
+      </c>
+      <c r="H39" t="n">
+        <v>29.19549012184143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>62.17705053852535</v>
+      </c>
+      <c r="C40" t="n">
+        <v>62.09691412357547</v>
+      </c>
+      <c r="D40" t="n">
+        <v>18.3588</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.2847</v>
+      </c>
+      <c r="F40" t="n">
+        <v>11.8327</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.387633323669434</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Base LightGBM Results</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>62.17705053852535</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62.09691412357547</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18.3588</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.2847</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.8327</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6136</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8389379978179932</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Base RandomForest results</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>73.33595110515733</v>
+      </c>
+      <c r="C42" t="n">
+        <v>73.09758405894173</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26.8289</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5.1797</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>14.1091</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7386</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3.233255624771118</v>
       </c>
     </row>
   </sheetData>
